--- a/Electromoblity_.xlsx
+++ b/Electromoblity_.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jen\Documents\GitHub\Electromobility-Data-Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F4C5C9-F5F9-4454-A88D-9F0AAF4437D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E2123D-7909-479F-96F9-E91E7DBD1B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,23 +22,22 @@
     <sheet name="Cars_regions" sheetId="6" r:id="rId7"/>
     <sheet name="Charge_global_pivot" sheetId="12" r:id="rId8"/>
     <sheet name="Charge_global" sheetId="7" r:id="rId9"/>
-    <sheet name="Charge_countries_pivot_reg" sheetId="14" r:id="rId10"/>
-    <sheet name="Charge_countries_pivot" sheetId="13" r:id="rId11"/>
-    <sheet name="Charge_countries_regression" sheetId="15" r:id="rId12"/>
-    <sheet name="Charge_countries" sheetId="8" r:id="rId13"/>
-    <sheet name="Charge_countries_2023_corr" sheetId="9" r:id="rId14"/>
+    <sheet name="Charge_countries_pivot" sheetId="13" r:id="rId10"/>
+    <sheet name="Charge_countries_regression" sheetId="15" r:id="rId11"/>
+    <sheet name="Charge_countries" sheetId="8" r:id="rId12"/>
+    <sheet name="Charge_countries_2023_corr" sheetId="9" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId15"/>
-    <pivotCache cacheId="1" r:id="rId16"/>
-    <pivotCache cacheId="2" r:id="rId17"/>
+    <pivotCache cacheId="0" r:id="rId14"/>
+    <pivotCache cacheId="1" r:id="rId15"/>
+    <pivotCache cacheId="2" r:id="rId16"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="116">
   <si>
     <t>region</t>
   </si>
@@ -362,9 +361,6 @@
   </si>
   <si>
     <t>Observation</t>
-  </si>
-  <si>
-    <t>Predicted Sum of EV stock_Sum</t>
   </si>
   <si>
     <t>Residuals</t>
@@ -21496,689 +21492,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30403057-E452-4FAD-8D36-CCE7D922970C}">
-  <dimension ref="A1:I55"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4">
-        <v>0.98719418064577424</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5">
-        <v>0.9745523503008815</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6">
-        <v>0.97367484513884295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7">
-        <v>545363.42789012752</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="5">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>330314405847316.69</v>
-      </c>
-      <c r="D12">
-        <v>330314405847316.69</v>
-      </c>
-      <c r="E12">
-        <v>1110.594435748802</v>
-      </c>
-      <c r="F12">
-        <v>1.1327172679160328E-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>8625216785922.041</v>
-      </c>
-      <c r="D13">
-        <v>297421268480.07037</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="5">
-        <v>30</v>
-      </c>
-      <c r="C14" s="5">
-        <v>338939622633238.75</v>
-      </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17">
-        <v>161358.78950683563</v>
-      </c>
-      <c r="C17">
-        <v>101293.93029987796</v>
-      </c>
-      <c r="D17">
-        <v>1.5929758972639059</v>
-      </c>
-      <c r="E17">
-        <v>0.12200836818638694</v>
-      </c>
-      <c r="F17">
-        <v>-45810.55931059891</v>
-      </c>
-      <c r="G17">
-        <v>368528.13832427014</v>
-      </c>
-      <c r="H17">
-        <v>-45810.55931059891</v>
-      </c>
-      <c r="I17">
-        <v>368528.13832427014</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="5">
-        <v>6.8982476793378762</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0.20699556325476631</v>
-      </c>
-      <c r="D18" s="5">
-        <v>33.325582301721319</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1.1327172679160407E-24</v>
-      </c>
-      <c r="F18" s="5">
-        <v>6.4748942175792727</v>
-      </c>
-      <c r="G18" s="5">
-        <v>7.3216011410964796</v>
-      </c>
-      <c r="H18" s="5">
-        <v>6.4748942175792727</v>
-      </c>
-      <c r="I18" s="5">
-        <v>7.3216011410964796</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>180397.95310180818</v>
-      </c>
-      <c r="C25">
-        <v>-19397.953101808176</v>
-      </c>
-      <c r="D25">
-        <v>-3.6176914431638729E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2</v>
-      </c>
-      <c r="B26">
-        <v>282078.12389524846</v>
-      </c>
-      <c r="C26">
-        <v>-105078.12389524846</v>
-      </c>
-      <c r="D26">
-        <v>-0.19596924875755006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <v>464881.68739770219</v>
-      </c>
-      <c r="C27">
-        <v>-174881.68739770219</v>
-      </c>
-      <c r="D27">
-        <v>-0.32615192991973596</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>4</v>
-      </c>
-      <c r="B28">
-        <v>187605.93210260617</v>
-      </c>
-      <c r="C28">
-        <v>-121605.93210260617</v>
-      </c>
-      <c r="D28">
-        <v>-0.22679338262992141</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>346231.82731309067</v>
-      </c>
-      <c r="C29">
-        <v>74768.172686909325</v>
-      </c>
-      <c r="D29">
-        <v>0.13944160867427666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>6</v>
-      </c>
-      <c r="B30">
-        <v>168739.91452372714</v>
-      </c>
-      <c r="C30">
-        <v>-166129.91452372714</v>
-      </c>
-      <c r="D30">
-        <v>-0.30982999446988591</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>7</v>
-      </c>
-      <c r="B31">
-        <v>18786627.523719098</v>
-      </c>
-      <c r="C31">
-        <v>-86627.523719098419</v>
-      </c>
-      <c r="D31">
-        <v>-0.16155913443869757</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>8</v>
-      </c>
-      <c r="B32">
-        <v>278629.00005557953</v>
-      </c>
-      <c r="C32">
-        <v>-61629.000055579527</v>
-      </c>
-      <c r="D32">
-        <v>-0.11493723331614469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>9</v>
-      </c>
-      <c r="B33">
-        <v>244827.58642682392</v>
-      </c>
-      <c r="C33">
-        <v>-142827.58642682392</v>
-      </c>
-      <c r="D33">
-        <v>-0.26637147463559174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>10</v>
-      </c>
-      <c r="B34">
-        <v>975352.01566870499</v>
-      </c>
-      <c r="C34">
-        <v>164647.98433129501</v>
-      </c>
-      <c r="D34">
-        <v>0.3070662151430722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>11</v>
-      </c>
-      <c r="B35">
-        <v>906369.53887532628</v>
-      </c>
-      <c r="C35">
-        <v>773630.46112467372</v>
-      </c>
-      <c r="D35">
-        <v>1.4428101174864516</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>12</v>
-      </c>
-      <c r="B36">
-        <v>196746.80010183895</v>
-      </c>
-      <c r="C36">
-        <v>-173746.80010183895</v>
-      </c>
-      <c r="D36">
-        <v>-0.32403538079846961</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>13</v>
-      </c>
-      <c r="B37">
-        <v>172120.05588660273</v>
-      </c>
-      <c r="C37">
-        <v>-147720.05588660273</v>
-      </c>
-      <c r="D37">
-        <v>-0.27549586255821873</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>14</v>
-      </c>
-      <c r="B38">
-        <v>236549.68921161848</v>
-      </c>
-      <c r="C38">
-        <v>-86279.689211618475</v>
-      </c>
-      <c r="D38">
-        <v>-0.16091042788974216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>15</v>
-      </c>
-      <c r="B39">
-        <v>195229.18561238461</v>
-      </c>
-      <c r="C39">
-        <v>-88229.185612384608</v>
-      </c>
-      <c r="D39">
-        <v>-0.16454621173276682</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>16</v>
-      </c>
-      <c r="B40">
-        <v>493164.50288298749</v>
-      </c>
-      <c r="C40">
-        <v>-183164.50288298749</v>
-      </c>
-      <c r="D40">
-        <v>-0.34159926632123944</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>17</v>
-      </c>
-      <c r="B41">
-        <v>379343.41617391253</v>
-      </c>
-      <c r="C41">
-        <v>-37343.416173912527</v>
-      </c>
-      <c r="D41">
-        <v>-6.9644955033053305E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>18</v>
-      </c>
-      <c r="B42">
-        <v>1547906.5730537488</v>
-      </c>
-      <c r="C42">
-        <v>-1075906.5730537488</v>
-      </c>
-      <c r="D42">
-        <v>-2.0065508884117746</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>19</v>
-      </c>
-      <c r="B43">
-        <v>175679.55168914105</v>
-      </c>
-      <c r="C43">
-        <v>-149479.55168914105</v>
-      </c>
-      <c r="D43">
-        <v>-0.27877729791158717</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>20</v>
-      </c>
-      <c r="B44">
-        <v>1167123.301154298</v>
-      </c>
-      <c r="C44">
-        <v>-647123.30115429801</v>
-      </c>
-      <c r="D44">
-        <v>-1.2068760126240523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>169222.7918612808</v>
-      </c>
-      <c r="C45">
-        <v>-87222.791861280799</v>
-      </c>
-      <c r="D45">
-        <v>-0.1626693012965402</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>22</v>
-      </c>
-      <c r="B46">
-        <v>347611.47684895829</v>
-      </c>
-      <c r="C46">
-        <v>352388.52315104171</v>
-      </c>
-      <c r="D46">
-        <v>0.65719972524000203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>23</v>
-      </c>
-      <c r="B47">
-        <v>202058.45081492909</v>
-      </c>
-      <c r="C47">
-        <v>-137058.45081492909</v>
-      </c>
-      <c r="D47">
-        <v>-0.25561211645585757</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>24</v>
-      </c>
-      <c r="B48">
-        <v>226202.31769261166</v>
-      </c>
-      <c r="C48">
-        <v>-108202.31769261166</v>
-      </c>
-      <c r="D48">
-        <v>-0.20179582700948581</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>25</v>
-      </c>
-      <c r="B49">
-        <v>163428.263810637</v>
-      </c>
-      <c r="C49">
-        <v>-160958.263810637</v>
-      </c>
-      <c r="D49">
-        <v>-0.30018493736845669</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>26</v>
-      </c>
-      <c r="B50">
-        <v>337953.93009788526</v>
-      </c>
-      <c r="C50">
-        <v>-112953.93009788526</v>
-      </c>
-      <c r="D50">
-        <v>-0.2106575184722759</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>27</v>
-      </c>
-      <c r="B51">
-        <v>399348.33444399235</v>
-      </c>
-      <c r="C51">
-        <v>-48348.334443992353</v>
-      </c>
-      <c r="D51">
-        <v>-9.0168975505437302E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>28</v>
-      </c>
-      <c r="B52">
-        <v>270351.10284037411</v>
-      </c>
-      <c r="C52">
-        <v>-67351.102840374107</v>
-      </c>
-      <c r="D52">
-        <v>-0.12560887592338757</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>29</v>
-      </c>
-      <c r="B53">
-        <v>215165.12140567106</v>
-      </c>
-      <c r="C53">
-        <v>-135465.12140567106</v>
-      </c>
-      <c r="D53">
-        <v>-0.25264057912933585</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>30</v>
-      </c>
-      <c r="B54">
-        <v>526965.9165117431</v>
-      </c>
-      <c r="C54">
-        <v>593034.0834882569</v>
-      </c>
-      <c r="D54">
-        <v>1.1060003692554616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="5">
-        <v>31</v>
-      </c>
-      <c r="B55" s="5">
-        <v>1423738.1148256669</v>
-      </c>
-      <c r="C55" s="5">
-        <v>2366261.8851743331</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4.413045711241586</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{118C7EBD-0EC7-4D5C-B529-101CD29F0088}">
   <dimension ref="A1:F35"/>
   <sheetViews>
@@ -22876,7 +22189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF21B21-658C-4E84-A8A1-361C94796F47}">
   <dimension ref="A1:I362"/>
   <sheetViews>
@@ -22902,7 +22215,7 @@
         <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -22920,7 +22233,7 @@
         <v>0.97651359212921085</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -22998,7 +22311,7 @@
         <v>4.5400676861906336E-226</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -23120,7 +22433,7 @@
         <v>106</v>
       </c>
       <c r="F22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -23129,16 +22442,16 @@
         <v>107</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>110</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>61</v>
@@ -29913,7 +29226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O339"/>
   <sheetViews>
@@ -45880,7 +45193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
